--- a/biology/Microbiologie/Gélose_Rapid'E._coli_2/Gélose_Rapid'E._coli_2.xlsx
+++ b/biology/Microbiologie/Gélose_Rapid'E._coli_2/Gélose_Rapid'E._coli_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Rapid%27E._coli_2</t>
+          <t>Gélose_Rapid'E._coli_2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rapid E. Coli 2 est un milieu de culture sélectif chromogénique pour dénombrer directement les bactéries comme Escherichia coli  et les autres coliformes dans un produit destiné à l'alimentation humaine et animale.
 Ce milieu de culture est validé AFNOR par la norme NF ISO 16649-2.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Rapid%27E._coli_2</t>
+          <t>Gélose_Rapid'E._coli_2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le principe du milieu de culture Rapid E. Coli 2 consiste à mettre en évidence simultanément deux activités enzymatiques : la Bêta-D-Glucuronidase (GLUC) et la Bêta-D-Galactosidase (GAL). 
 Le milieu contient deux substrats chromogéniques :
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Rapid%27E._coli_2</t>
+          <t>Gélose_Rapid'E._coli_2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Peptones: 10 g/l
 NaCl : 5 g/l
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Rapid%27E._coli_2</t>
+          <t>Gélose_Rapid'E._coli_2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,10 +600,12 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bio-Rad. Fiche technique du milieu de culture Rapid E. Coli 2 (355 5290 - 356 4024). [1]
-AFNOR, norme NF ISO 16649-2 [2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bio-Rad. Fiche technique du milieu de culture Rapid E. Coli 2 (355 5290 - 356 4024). 
+AFNOR, norme NF ISO 16649-2 
  Portail de la microbiologie                     </t>
         </is>
       </c>
